--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha4_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha4_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.574468085106383</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="C3">
-        <v>0.5010799136069114</v>
+        <v>0.5010940919037199</v>
       </c>
       <c r="D3">
-        <v>0.656084656084656</v>
+        <v>0.5895953757225434</v>
       </c>
       <c r="E3">
-        <v>0.4925690021231423</v>
+        <v>0.4967880085653105</v>
       </c>
       <c r="F3">
-        <v>0.6521739130434783</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="G3">
-        <v>0.504149377593361</v>
+        <v>0.4979338842975207</v>
       </c>
       <c r="H3">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6527777777777778</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="C4">
-        <v>0.5152173913043478</v>
+        <v>0.4894067796610169</v>
       </c>
       <c r="D4">
-        <v>0.6268656716417911</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="E4">
-        <v>0.4571428571428571</v>
+        <v>0.4754316069057105</v>
       </c>
       <c r="F4">
-        <v>0.6825396825396826</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>0.4634146341463415</v>
+        <v>0.4571805006587615</v>
       </c>
       <c r="H4">
-        <v>0.482</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.671875</v>
       </c>
       <c r="C5">
-        <v>0.4969939879759519</v>
+        <v>0.4914285714285714</v>
       </c>
       <c r="D5">
-        <v>0.5315315315315315</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="E5">
-        <v>0.4776500638569604</v>
+        <v>0.4813477737665463</v>
       </c>
       <c r="F5">
-        <v>0.6019417475728155</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="G5">
-        <v>0.4813895781637717</v>
+        <v>0.4673008323424495</v>
       </c>
       <c r="H5">
-        <v>0.482</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7183098591549296</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>0.4880733944954129</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="D6">
-        <v>0.6060606060606061</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="E6">
-        <v>0.4864197530864198</v>
+        <v>0.4841363102232668</v>
       </c>
       <c r="F6">
-        <v>0.5571428571428572</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G6">
-        <v>0.498186215235792</v>
+        <v>0.4797219003476246</v>
       </c>
       <c r="H6">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7910447761194029</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C7">
-        <v>0.4878444084278768</v>
+        <v>0.4921383647798742</v>
       </c>
       <c r="D7">
-        <v>0.5897435897435898</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="E7">
-        <v>0.481786133960047</v>
+        <v>0.4846698113207547</v>
       </c>
       <c r="F7">
-        <v>0.4868421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="G7">
-        <v>0.5087514585764294</v>
+        <v>0.4850917431192661</v>
       </c>
       <c r="H7">
-        <v>0.462</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C8">
-        <v>0.4872944693572496</v>
+        <v>0.5044117647058823</v>
       </c>
       <c r="D8">
-        <v>0.6153846153846154</v>
+        <v>0.5375</v>
       </c>
       <c r="E8">
-        <v>0.4892857142857143</v>
+        <v>0.4840236686390533</v>
       </c>
       <c r="F8">
-        <v>0.5833333333333334</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="G8">
-        <v>0.5182998819362455</v>
+        <v>0.4844649021864212</v>
       </c>
       <c r="H8">
-        <v>0.44</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6933333333333334</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="C9">
-        <v>0.4978723404255319</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="D9">
-        <v>0.5555555555555556</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E9">
-        <v>0.4903614457831325</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="F9">
-        <v>0.573170731707317</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G9">
-        <v>0.5126353790613718</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="H9">
-        <v>0.43</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C10">
-        <v>0.523936170212766</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.4642857142857143</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="E10">
-        <v>0.499383477188656</v>
+        <v>0.48</v>
       </c>
       <c r="F10">
-        <v>0.475609756097561</v>
+        <v>0.46875</v>
       </c>
       <c r="G10">
-        <v>0.5110565110565111</v>
+        <v>0.489311163895487</v>
       </c>
       <c r="H10">
-        <v>0.418</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7012987012987013</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C11">
-        <v>0.5275689223057645</v>
+        <v>0.4944237918215613</v>
       </c>
       <c r="D11">
-        <v>0.3956043956043956</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="E11">
-        <v>0.5006180469715699</v>
+        <v>0.4740740740740741</v>
       </c>
       <c r="F11">
-        <v>0.4418604651162791</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="G11">
-        <v>0.5171990171990172</v>
+        <v>0.4848851269649335</v>
       </c>
       <c r="H11">
-        <v>0.418</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6865671641791045</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="C12">
-        <v>0.5316606929510155</v>
+        <v>0.505868544600939</v>
       </c>
       <c r="D12">
-        <v>0.5204081632653061</v>
+        <v>0.57</v>
       </c>
       <c r="E12">
-        <v>0.5056461731493099</v>
+        <v>0.4790874524714829</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="G12">
-        <v>0.5192546583850932</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6588235294117647</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C13">
-        <v>0.5363128491620112</v>
+        <v>0.5122767857142857</v>
       </c>
       <c r="D13">
-        <v>0.4269662921348314</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E13">
-        <v>0.4968553459119497</v>
+        <v>0.4818067754077792</v>
       </c>
       <c r="F13">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.5105590062111801</v>
+        <v>0.4866504854368932</v>
       </c>
       <c r="H13">
-        <v>0.402</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6438356164383562</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C14">
-        <v>0.5363247863247863</v>
+        <v>0.523709167544784</v>
       </c>
       <c r="D14">
-        <v>0.4942528735632184</v>
+        <v>0.4375</v>
       </c>
       <c r="E14">
-        <v>0.4951456310679612</v>
+        <v>0.4796547472256473</v>
       </c>
       <c r="F14">
-        <v>0.5119047619047619</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="G14">
-        <v>0.5018181818181818</v>
+        <v>0.4878345498783455</v>
       </c>
       <c r="H14">
-        <v>0.404</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="C15">
-        <v>0.5353938185443669</v>
+        <v>0.5112414467253177</v>
       </c>
       <c r="D15">
-        <v>0.5205479452054794</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="E15">
-        <v>0.4831730769230769</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="F15">
-        <v>0.5714285714285714</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="G15">
-        <v>0.4988038277511962</v>
+        <v>0.4832935560859188</v>
       </c>
       <c r="H15">
-        <v>0.384</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7213114754098361</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C16">
-        <v>0.5375234521575984</v>
+        <v>0.5159474671669794</v>
       </c>
       <c r="D16">
-        <v>0.5529411764705883</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E16">
-        <v>0.4822274881516588</v>
+        <v>0.4743742550655543</v>
       </c>
       <c r="F16">
-        <v>0.5769230769230769</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G16">
-        <v>0.4912280701754386</v>
+        <v>0.4875148632580262</v>
       </c>
       <c r="H16">
-        <v>0.394</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7222222222222222</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C17">
-        <v>0.5409982174688057</v>
+        <v>0.5155393053016454</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="E17">
-        <v>0.48</v>
+        <v>0.4774665042630938</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="G17">
-        <v>0.4982035928143713</v>
+        <v>0.4934289127837515</v>
       </c>
       <c r="H17">
-        <v>0.384</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7702702702702703</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="C18">
-        <v>0.5393835616438356</v>
+        <v>0.5143353605560382</v>
       </c>
       <c r="D18">
-        <v>0.4050632911392405</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="E18">
-        <v>0.4795673076923077</v>
+        <v>0.4751243781094527</v>
       </c>
       <c r="F18">
-        <v>0.5316455696202531</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="G18">
-        <v>0.5005931198102017</v>
+        <v>0.4987980769230769</v>
       </c>
       <c r="H18">
-        <v>0.39</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C19">
-        <v>0.5347506132461161</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="E19">
-        <v>0.4844497607655502</v>
+        <v>0.484472049689441</v>
       </c>
       <c r="F19">
-        <v>0.5256410256410257</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="G19">
-        <v>0.4958481613285884</v>
+        <v>0.4951690821256038</v>
       </c>
       <c r="H19">
-        <v>0.396</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.725</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="C20">
-        <v>0.535408560311284</v>
+        <v>0.524</v>
       </c>
       <c r="D20">
-        <v>0.5211267605633803</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="E20">
-        <v>0.4827175208581645</v>
+        <v>0.4894409937888199</v>
       </c>
       <c r="F20">
-        <v>0.4507042253521127</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="G20">
-        <v>0.5023640661938534</v>
+        <v>0.4951690821256038</v>
       </c>
       <c r="H20">
-        <v>0.39</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C21">
-        <v>0.5283018867924528</v>
+        <v>0.5211051419800461</v>
       </c>
       <c r="D21">
-        <v>0.5932203389830508</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="E21">
-        <v>0.4851720047449585</v>
+        <v>0.5030599755201959</v>
       </c>
       <c r="F21">
-        <v>0.3636363636363636</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="G21">
-        <v>0.5041420118343195</v>
+        <v>0.4873646209386281</v>
       </c>
       <c r="H21">
-        <v>0.402</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7023809523809523</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C22">
-        <v>0.5325530358449159</v>
+        <v>0.5187087307410124</v>
       </c>
       <c r="D22">
-        <v>0.6521739130434783</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="E22">
-        <v>0.4839094159713945</v>
+        <v>0.5</v>
       </c>
       <c r="F22">
-        <v>0.382716049382716</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="G22">
-        <v>0.5035799522673031</v>
+        <v>0.4803804994054697</v>
       </c>
       <c r="H22">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8051948051948052</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C23">
-        <v>0.5329087048832272</v>
+        <v>0.5223562810503903</v>
       </c>
       <c r="D23">
-        <v>0.5697674418604651</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E23">
-        <v>0.4872727272727272</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="F23">
-        <v>0.4320987654320987</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="G23">
-        <v>0.5006119951040392</v>
+        <v>0.4723854289071681</v>
       </c>
       <c r="H23">
-        <v>0.412</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7466666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C24">
-        <v>0.5301783264746228</v>
+        <v>0.5244658855961406</v>
       </c>
       <c r="D24">
-        <v>0.5125</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E24">
-        <v>0.4956304619225967</v>
+        <v>0.484029484029484</v>
       </c>
       <c r="F24">
-        <v>0.3809523809523809</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G24">
-        <v>0.5024752475247525</v>
+        <v>0.4607013301088271</v>
       </c>
       <c r="H24">
-        <v>0.41</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.68</v>
+        <v>0.7375</v>
       </c>
       <c r="C25">
-        <v>0.534516765285996</v>
+        <v>0.5190635451505017</v>
       </c>
       <c r="D25">
         <v>0.4838709677419355</v>
       </c>
       <c r="E25">
-        <v>0.4872727272727272</v>
+        <v>0.4828850855745721</v>
       </c>
       <c r="F25">
-        <v>0.4021739130434783</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="G25">
-        <v>0.501813784764208</v>
+        <v>0.4707985697258641</v>
       </c>
       <c r="H25">
-        <v>0.414</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7532467532467533</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="C26">
-        <v>0.5343949044585987</v>
+        <v>0.5198717948717949</v>
       </c>
       <c r="D26">
-        <v>0.4852941176470588</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="E26">
-        <v>0.4939467312348668</v>
+        <v>0.4861612515042118</v>
       </c>
       <c r="F26">
-        <v>0.5797101449275363</v>
+        <v>0.5875</v>
       </c>
       <c r="G26">
-        <v>0.5012019230769231</v>
+        <v>0.476303317535545</v>
       </c>
       <c r="H26">
-        <v>0.408</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6708860759493671</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="C27">
-        <v>0.5343653250773994</v>
+        <v>0.5183571873055383</v>
       </c>
       <c r="D27">
-        <v>0.5857142857142857</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="E27">
-        <v>0.4833333333333333</v>
+        <v>0.4840236686390533</v>
       </c>
       <c r="F27">
-        <v>0.5135135135135135</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="G27">
-        <v>0.4899169632265717</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="H27">
-        <v>0.426</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7384615384615385</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="C28">
-        <v>0.5355421686746988</v>
+        <v>0.5193470374848851</v>
       </c>
       <c r="D28">
-        <v>0.4794520547945205</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="E28">
-        <v>0.4784172661870504</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="F28">
-        <v>0.6164383561643836</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G28">
-        <v>0.4856115107913669</v>
+        <v>0.4910820451843044</v>
       </c>
       <c r="H28">
-        <v>0.428</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.75</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C29">
-        <v>0.5289017341040463</v>
+        <v>0.5240893066980024</v>
       </c>
       <c r="D29">
-        <v>0.5714285714285714</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="E29">
-        <v>0.4737470167064439</v>
+        <v>0.488456865127582</v>
       </c>
       <c r="F29">
-        <v>0.5802469135802469</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="G29">
-        <v>0.4791418355184744</v>
+        <v>0.4963855421686747</v>
       </c>
       <c r="H29">
-        <v>0.438</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7183098591549296</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="C30">
-        <v>0.5267653758542141</v>
+        <v>0.5252293577981652</v>
       </c>
       <c r="D30">
-        <v>0.6756756756756757</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="E30">
-        <v>0.4695121951219512</v>
+        <v>0.4896214896214896</v>
       </c>
       <c r="F30">
-        <v>0.6233766233766234</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
-        <v>0.4884287454323995</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="H30">
-        <v>0.424</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8028169014084507</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="C31">
-        <v>0.5291181364392679</v>
+        <v>0.5274542429284526</v>
       </c>
       <c r="D31">
-        <v>0.5841584158415841</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E31">
-        <v>0.4772447724477245</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="F31">
-        <v>0.5652173913043478</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="G31">
-        <v>0.498159509202454</v>
+        <v>0.5024096385542168</v>
       </c>
       <c r="H31">
-        <v>0.41</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="C32">
-        <v>0.5256618044300378</v>
+        <v>0.528804347826087</v>
       </c>
       <c r="D32">
-        <v>0.5257731958762887</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="E32">
-        <v>0.484394506866417</v>
+        <v>0.4889162561576355</v>
       </c>
       <c r="F32">
-        <v>0.4725274725274725</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="G32">
-        <v>0.4956949569495695</v>
+        <v>0.4993909866017052</v>
       </c>
       <c r="H32">
-        <v>0.422</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7333333333333333</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C33">
-        <v>0.5261213720316623</v>
+        <v>0.529039070749736</v>
       </c>
       <c r="D33">
-        <v>0.5617977528089888</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="E33">
-        <v>0.4893882646691635</v>
+        <v>0.484548825710754</v>
       </c>
       <c r="F33">
-        <v>0.5402298850574713</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="G33">
-        <v>0.5012345679012346</v>
+        <v>0.4933494558645707</v>
       </c>
       <c r="H33">
-        <v>0.404</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7317073170731707</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C34">
-        <v>0.5246659815005139</v>
+        <v>0.5301391035548686</v>
       </c>
       <c r="D34">
-        <v>0.5858585858585859</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="E34">
-        <v>0.4883435582822086</v>
+        <v>0.4785801713586291</v>
       </c>
       <c r="F34">
-        <v>0.5894736842105263</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="G34">
-        <v>0.4896719319562576</v>
+        <v>0.4896969696969697</v>
       </c>
       <c r="H34">
-        <v>0.406</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C35">
-        <v>0.5261044176706827</v>
+        <v>0.5300902708124373</v>
       </c>
       <c r="D35">
-        <v>0.569620253164557</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="E35">
-        <v>0.4883435582822086</v>
+        <v>0.4818840579710145</v>
       </c>
       <c r="F35">
-        <v>0.5135135135135135</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="G35">
-        <v>0.4842615012106538</v>
+        <v>0.4862604540023895</v>
       </c>
       <c r="H35">
-        <v>0.408</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7083333333333334</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="C36">
-        <v>0.5297560975609756</v>
+        <v>0.529526598340654</v>
       </c>
       <c r="D36">
-        <v>0.48</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="E36">
-        <v>0.491566265060241</v>
+        <v>0.4863258026159334</v>
       </c>
       <c r="F36">
-        <v>0.515625</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="G36">
-        <v>0.4874851013110846</v>
+        <v>0.4853113983548766</v>
       </c>
       <c r="H36">
-        <v>0.416</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7162162162162162</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="C37">
-        <v>0.5326657129232236</v>
+        <v>0.52868068833652</v>
       </c>
       <c r="D37">
-        <v>0.4578313253012048</v>
+        <v>0.46875</v>
       </c>
       <c r="E37">
-        <v>0.5036231884057971</v>
+        <v>0.4958183990442055</v>
       </c>
       <c r="F37">
-        <v>0.5352112676056338</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G37">
-        <v>0.4857482185273159</v>
+        <v>0.4797619047619048</v>
       </c>
       <c r="H37">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C38">
-        <v>0.5292192613370734</v>
+        <v>0.5314685314685315</v>
       </c>
       <c r="D38">
-        <v>0.4523809523809524</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="E38">
-        <v>0.5055350553505535</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="F38">
-        <v>0.4545454545454545</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="G38">
-        <v>0.4945586457073761</v>
+        <v>0.4754491017964072</v>
       </c>
       <c r="H38">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7027027027027027</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="C39">
-        <v>0.5288461538461539</v>
+        <v>0.5319634703196348</v>
       </c>
       <c r="D39">
-        <v>0.5789473684210527</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="E39">
-        <v>0.4981549815498155</v>
+        <v>0.4951923076923077</v>
       </c>
       <c r="F39">
-        <v>0.4235294117647059</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="G39">
-        <v>0.4860606060606061</v>
+        <v>0.4715840386940749</v>
       </c>
       <c r="H39">
-        <v>0.426</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6447368421052632</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="C40">
-        <v>0.5281501340482574</v>
+        <v>0.5353625783348255</v>
       </c>
       <c r="D40">
-        <v>0.525</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E40">
-        <v>0.4877450980392157</v>
+        <v>0.498186215235792</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="G40">
-        <v>0.4832134292565947</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="H40">
-        <v>0.428</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,22 +1440,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7073170731707317</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="C41">
-        <v>0.5322862129144852</v>
+        <v>0.5366912722535823</v>
       </c>
       <c r="D41">
-        <v>0.5068493150684932</v>
+        <v>0.5</v>
       </c>
       <c r="E41">
-        <v>0.5</v>
+        <v>0.479951397326853</v>
       </c>
       <c r="F41">
-        <v>0.5735294117647058</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="G41">
-        <v>0.4811320754716981</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="H41">
         <v>0.418</v>
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6712328767123288</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="C42">
-        <v>0.5303678357570573</v>
+        <v>0.5383626232318903</v>
       </c>
       <c r="D42">
-        <v>0.4520547945205479</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="E42">
-        <v>0.4952380952380953</v>
+        <v>0.4771886559802713</v>
       </c>
       <c r="F42">
-        <v>0.4444444444444444</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="G42">
-        <v>0.4793388429752066</v>
+        <v>0.4764776839565742</v>
       </c>
       <c r="H42">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6329113924050633</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C43">
-        <v>0.530442035029191</v>
+        <v>0.5371452420701168</v>
       </c>
       <c r="D43">
-        <v>0.4722222222222222</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="E43">
-        <v>0.4970273483947681</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="G43">
-        <v>0.4816132858837485</v>
+        <v>0.4709371293001186</v>
       </c>
       <c r="H43">
-        <v>0.434</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.68</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="C44">
-        <v>0.5310827501029231</v>
+        <v>0.5363748458692972</v>
       </c>
       <c r="D44">
-        <v>0.5538461538461539</v>
+        <v>0.55</v>
       </c>
       <c r="E44">
-        <v>0.4951923076923077</v>
+        <v>0.4752116082224909</v>
       </c>
       <c r="F44">
-        <v>0.4225352112676056</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="G44">
-        <v>0.4760765550239234</v>
+        <v>0.4792176039119804</v>
       </c>
       <c r="H44">
-        <v>0.438</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6790123456790124</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="C45">
-        <v>0.5303152789005658</v>
+        <v>0.5321992709599028</v>
       </c>
       <c r="D45">
-        <v>0.5063291139240507</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="E45">
-        <v>0.4903614457831325</v>
+        <v>0.4702308626974483</v>
       </c>
       <c r="F45">
-        <v>0.4</v>
+        <v>0.525</v>
       </c>
       <c r="G45">
-        <v>0.4765342960288809</v>
+        <v>0.4781553398058253</v>
       </c>
       <c r="H45">
-        <v>0.444</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7228915662650602</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C46">
-        <v>0.5277998411437649</v>
+        <v>0.533969010727056</v>
       </c>
       <c r="D46">
-        <v>0.4938271604938271</v>
+        <v>0.5625</v>
       </c>
       <c r="E46">
-        <v>0.4927710843373494</v>
+        <v>0.475669099756691</v>
       </c>
       <c r="F46">
-        <v>0.5066666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="G46">
-        <v>0.4788902291917974</v>
+        <v>0.4728588661037395</v>
       </c>
       <c r="H46">
-        <v>0.436</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7045454545454546</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C47">
-        <v>0.5255559890753024</v>
+        <v>0.5325029194239004</v>
       </c>
       <c r="D47">
-        <v>0.5125</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E47">
-        <v>0.4957780458383595</v>
+        <v>0.4724220623501199</v>
       </c>
       <c r="F47">
-        <v>0.5081967213114754</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="G47">
-        <v>0.4689737470167065</v>
+        <v>0.4767580452920143</v>
       </c>
       <c r="H47">
-        <v>0.422</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7777777777777778</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="C48">
-        <v>0.5236811705814401</v>
+        <v>0.5304808784551306</v>
       </c>
       <c r="D48">
-        <v>0.5662650602409639</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="E48">
-        <v>0.5024570024570024</v>
+        <v>0.4741896758703482</v>
       </c>
       <c r="F48">
-        <v>0.4927536231884058</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="G48">
-        <v>0.4778443113772455</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H48">
-        <v>0.398</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7325581395348837</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C49">
-        <v>0.5177358490566037</v>
+        <v>0.5304900860456416</v>
       </c>
       <c r="D49">
-        <v>0.5869565217391305</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="E49">
-        <v>0.4987834549878346</v>
+        <v>0.4809976247030879</v>
       </c>
       <c r="F49">
-        <v>0.449438202247191</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
-        <v>0.4755077658303465</v>
+        <v>0.4660421545667447</v>
       </c>
       <c r="H49">
-        <v>0.406</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.75</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="C50">
-        <v>0.522509225092251</v>
+        <v>0.5269329424697692</v>
       </c>
       <c r="D50">
-        <v>0.6867469879518072</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="E50">
-        <v>0.5006045949214026</v>
+        <v>0.4873646209386281</v>
       </c>
       <c r="F50">
-        <v>0.45</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="G50">
-        <v>0.4777911164465786</v>
+        <v>0.4717887154861945</v>
       </c>
       <c r="H50">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7058823529411765</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="C51">
-        <v>0.5211573236889693</v>
+        <v>0.5246669067338855</v>
       </c>
       <c r="D51">
-        <v>0.5411764705882353</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="E51">
-        <v>0.5024154589371981</v>
+        <v>0.496962332928311</v>
       </c>
       <c r="F51">
-        <v>0.5211267605633803</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="G51">
-        <v>0.4760765550239234</v>
+        <v>0.4665856622114216</v>
       </c>
       <c r="H51">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7333333333333333</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="C52">
-        <v>0.5238436715668698</v>
+        <v>0.5259206292456203</v>
       </c>
       <c r="D52">
-        <v>0.5975609756097561</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="E52">
-        <v>0.5111386138613861</v>
+        <v>0.4993788819875776</v>
       </c>
       <c r="F52">
-        <v>0.5205479452054794</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="G52">
-        <v>0.4578313253012048</v>
+        <v>0.4753694581280788</v>
       </c>
       <c r="H52">
-        <v>0.42</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7848101265822784</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C53">
-        <v>0.5207373271889401</v>
+        <v>0.5251141552511416</v>
       </c>
       <c r="D53">
-        <v>0.46875</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="E53">
-        <v>0.5062189054726368</v>
+        <v>0.4962593516209476</v>
       </c>
       <c r="F53">
-        <v>0.4936708860759494</v>
+        <v>0.49</v>
       </c>
       <c r="G53">
-        <v>0.4511002444987775</v>
+        <v>0.4724602203182375</v>
       </c>
       <c r="H53">
-        <v>0.426</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7441860465116279</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="C54">
-        <v>0.5204435204435205</v>
+        <v>0.5243818681318682</v>
       </c>
       <c r="D54">
-        <v>0.5368421052631579</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="E54">
-        <v>0.5178791615289766</v>
+        <v>0.4938574938574938</v>
       </c>
       <c r="F54">
-        <v>0.5268817204301075</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="G54">
-        <v>0.4523522316043426</v>
+        <v>0.4674046740467405</v>
       </c>
       <c r="H54">
-        <v>0.428</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7093023255813954</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C55">
-        <v>0.5203279808677828</v>
+        <v>0.5231967490687437</v>
       </c>
       <c r="D55">
-        <v>0.5063291139240507</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="E55">
-        <v>0.5171149144254279</v>
+        <v>0.4969770253929867</v>
       </c>
       <c r="F55">
-        <v>0.463768115942029</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="G55">
-        <v>0.4496969696969697</v>
+        <v>0.4678007290400972</v>
       </c>
       <c r="H55">
-        <v>0.436</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7341772151898734</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C56">
-        <v>0.5204697986577181</v>
+        <v>0.523</v>
       </c>
       <c r="D56">
-        <v>0.5555555555555556</v>
+        <v>0.6125</v>
       </c>
       <c r="E56">
-        <v>0.5228915662650603</v>
+        <v>0.4982164090368609</v>
       </c>
       <c r="F56">
-        <v>0.4054054054054054</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="G56">
-        <v>0.4590747330960854</v>
+        <v>0.4720570749108204</v>
       </c>
       <c r="H56">
-        <v>0.418</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6941176470588235</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C57">
-        <v>0.5191798941798942</v>
+        <v>0.5206066600725354</v>
       </c>
       <c r="D57">
-        <v>0.5866666666666667</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="E57">
-        <v>0.5162454873646209</v>
+        <v>0.501207729468599</v>
       </c>
       <c r="F57">
-        <v>0.4473684210526316</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G57">
-        <v>0.4590361445783133</v>
+        <v>0.4785202863961814</v>
       </c>
       <c r="H57">
-        <v>0.424</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6666666666666666</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C58">
-        <v>0.5189295039164491</v>
+        <v>0.5203751617076326</v>
       </c>
       <c r="D58">
-        <v>0.5760869565217391</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="E58">
-        <v>0.5182481751824818</v>
+        <v>0.508578431372549</v>
       </c>
       <c r="F58">
-        <v>0.5569620253164557</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="G58">
-        <v>0.4514563106796117</v>
+        <v>0.4797619047619048</v>
       </c>
       <c r="H58">
-        <v>0.418</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6857142857142857</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="C59">
-        <v>0.5198336532309661</v>
+        <v>0.5192368839427663</v>
       </c>
       <c r="D59">
-        <v>0.575</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="E59">
-        <v>0.5225885225885226</v>
+        <v>0.5137395459976105</v>
       </c>
       <c r="F59">
-        <v>0.5454545454545454</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="G59">
-        <v>0.453781512605042</v>
+        <v>0.4735605170387779</v>
       </c>
       <c r="H59">
-        <v>0.402</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.59375</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C60">
-        <v>0.5197616060225847</v>
+        <v>0.5199748348537276</v>
       </c>
       <c r="D60">
-        <v>0.5657894736842105</v>
+        <v>0.6</v>
       </c>
       <c r="E60">
-        <v>0.5307328605200946</v>
+        <v>0.5193236714975845</v>
       </c>
       <c r="F60">
-        <v>0.5428571428571428</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G60">
-        <v>0.4571092831962397</v>
+        <v>0.464975845410628</v>
       </c>
       <c r="H60">
-        <v>0.402</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6438356164383562</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="C61">
-        <v>0.5206407886629698</v>
+        <v>0.5197634609399315</v>
       </c>
       <c r="D61">
-        <v>0.4754098360655737</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="E61">
-        <v>0.5294117647058824</v>
+        <v>0.5230582524271845</v>
       </c>
       <c r="F61">
-        <v>0.4615384615384616</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="G61">
-        <v>0.4633294528521537</v>
+        <v>0.4680337756332931</v>
       </c>
       <c r="H61">
-        <v>0.392</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.703125</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="C62">
-        <v>0.5191605839416058</v>
+        <v>0.519571865443425</v>
       </c>
       <c r="D62">
-        <v>0.5454545454545454</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="E62">
-        <v>0.530373831775701</v>
+        <v>0.5233415233415234</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="G62">
-        <v>0.4625292740046839</v>
+        <v>0.4706601466992665</v>
       </c>
       <c r="H62">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6417910447761194</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C63">
-        <v>0.5195814648729447</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="D63">
-        <v>0.5151515151515151</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="E63">
-        <v>0.5249406175771971</v>
+        <v>0.5201465201465202</v>
       </c>
       <c r="F63">
-        <v>0.4931506849315068</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="G63">
-        <v>0.4663518299881936</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="H63">
-        <v>0.386</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7058823529411765</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C64">
-        <v>0.5193044503389331</v>
+        <v>0.5212514757969303</v>
       </c>
       <c r="D64">
-        <v>0.45</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="E64">
-        <v>0.525564803804994</v>
+        <v>0.5204326923076923</v>
       </c>
       <c r="F64">
-        <v>0.5733333333333334</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="G64">
-        <v>0.4785202863961814</v>
+        <v>0.4614472123368921</v>
       </c>
       <c r="H64">
-        <v>0.366</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C65">
-        <v>0.516560139453806</v>
+        <v>0.5200581395348837</v>
       </c>
       <c r="D65">
-        <v>0.5492957746478874</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E65">
-        <v>0.5335731414868106</v>
+        <v>0.5094117647058823</v>
       </c>
       <c r="F65">
-        <v>0.5526315789473685</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G65">
-        <v>0.4798099762470309</v>
+        <v>0.4607268464243846</v>
       </c>
       <c r="H65">
-        <v>0.362</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6025641025641025</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="C66">
-        <v>0.5142528073711489</v>
+        <v>0.5187732874749211</v>
       </c>
       <c r="D66">
-        <v>0.5138888888888888</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="E66">
-        <v>0.5221556886227545</v>
+        <v>0.5174013921113689</v>
       </c>
       <c r="F66">
-        <v>0.4507042253521127</v>
+        <v>0.6</v>
       </c>
       <c r="G66">
-        <v>0.4808612440191388</v>
+        <v>0.4658823529411765</v>
       </c>
       <c r="H66">
-        <v>0.366</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7058823529411765</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C67">
-        <v>0.517821499857428</v>
+        <v>0.5200564971751412</v>
       </c>
       <c r="D67">
-        <v>0.5375</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="E67">
-        <v>0.5292682926829269</v>
+        <v>0.519434628975265</v>
       </c>
       <c r="F67">
-        <v>0.5147058823529411</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="G67">
-        <v>0.4848851269649335</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="H67">
-        <v>0.374</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6904761904761905</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="C68">
-        <v>0.5166994106090373</v>
+        <v>0.5185082104091289</v>
       </c>
       <c r="D68">
-        <v>0.5168539325842697</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="E68">
-        <v>0.5263803680981595</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="F68">
-        <v>0.5287356321839081</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="G68">
-        <v>0.48014440433213</v>
+        <v>0.4696066746126341</v>
       </c>
       <c r="H68">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6506024096385542</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C69">
-        <v>0.5178173719376392</v>
+        <v>0.5169842584921293</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E69">
         <v>0.5245098039215687</v>
       </c>
       <c r="F69">
-        <v>0.5641025641025641</v>
+        <v>0.5375</v>
       </c>
       <c r="G69">
-        <v>0.4781021897810219</v>
+        <v>0.4822954822954823</v>
       </c>
       <c r="H69">
-        <v>0.396</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6712328767123288</v>
+        <v>0.625</v>
       </c>
       <c r="C70">
-        <v>0.5200439319055464</v>
+        <v>0.5178179824561403</v>
       </c>
       <c r="D70">
-        <v>0.4418604651162791</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="E70">
-        <v>0.5272727272727272</v>
+        <v>0.5178791615289766</v>
       </c>
       <c r="F70">
-        <v>0.4864864864864865</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="G70">
-        <v>0.4790419161676647</v>
+        <v>0.4743276283618582</v>
       </c>
       <c r="H70">
-        <v>0.384</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.654320987654321</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C71">
-        <v>0.5194805194805194</v>
+        <v>0.5196211096075778</v>
       </c>
       <c r="D71">
-        <v>0.4050632911392405</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E71">
-        <v>0.5157384987893463</v>
+        <v>0.5224438902743143</v>
       </c>
       <c r="F71">
-        <v>0.4366197183098591</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G71">
-        <v>0.4869358669833729</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="H71">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6091954022988506</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C72">
-        <v>0.5191227600962824</v>
+        <v>0.5194317877244706</v>
       </c>
       <c r="D72">
-        <v>0.4666666666666667</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="E72">
-        <v>0.5077658303464755</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="F72">
-        <v>0.5694444444444444</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="G72">
-        <v>0.4888103651354535</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="H72">
-        <v>0.378</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.72</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C73">
-        <v>0.519872813990461</v>
+        <v>0.5190174326465927</v>
       </c>
       <c r="D73">
-        <v>0.4857142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E73">
-        <v>0.5006002400960384</v>
+        <v>0.5158536585365854</v>
       </c>
       <c r="F73">
-        <v>0.6029411764705882</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="G73">
-        <v>0.4934445768772348</v>
+        <v>0.4822521419828641</v>
       </c>
       <c r="H73">
-        <v>0.382</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6578947368421053</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C74">
-        <v>0.5170706280948658</v>
+        <v>0.5186246418338109</v>
       </c>
       <c r="D74">
-        <v>0.5125</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="E74">
-        <v>0.5018007202881153</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F74">
-        <v>0.5348837209302325</v>
+        <v>0.6</v>
       </c>
       <c r="G74">
-        <v>0.4910394265232975</v>
+        <v>0.4865853658536585</v>
       </c>
       <c r="H74">
-        <v>0.392</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8095238095238095</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C75">
-        <v>0.520072053525476</v>
+        <v>0.5189840944073884</v>
       </c>
       <c r="D75">
-        <v>0.5507246376811594</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="E75">
-        <v>0.4993983152827918</v>
+        <v>0.5077473182359953</v>
       </c>
       <c r="F75">
-        <v>0.5454545454545454</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="G75">
-        <v>0.4921212121212121</v>
+        <v>0.4839094159713945</v>
       </c>
       <c r="H75">
-        <v>0.396</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="C76">
-        <v>0.5154822335025381</v>
+        <v>0.5186123069131425</v>
       </c>
       <c r="D76">
-        <v>0.4626865671641791</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E76">
-        <v>0.4958283671036949</v>
+        <v>0.511137162954279</v>
       </c>
       <c r="F76">
-        <v>0.5238095238095238</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="G76">
-        <v>0.4873949579831933</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="H76">
-        <v>0.396</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6486486486486487</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="C77">
-        <v>0.5175526579739218</v>
+        <v>0.5172067319768903</v>
       </c>
       <c r="D77">
-        <v>0.5789473684210527</v>
+        <v>0.5</v>
       </c>
       <c r="E77">
-        <v>0.4881516587677725</v>
+        <v>0.5077105575326216</v>
       </c>
       <c r="F77">
-        <v>0.5176470588235295</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="G77">
-        <v>0.4879518072289157</v>
+        <v>0.4941037735849056</v>
       </c>
       <c r="H77">
-        <v>0.402</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6901408450704225</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="C78">
-        <v>0.519087754090233</v>
+        <v>0.5158235733864939</v>
       </c>
       <c r="D78">
-        <v>0.4794520547945205</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="E78">
-        <v>0.4869047619047619</v>
+        <v>0.5108958837772397</v>
       </c>
       <c r="F78">
-        <v>0.5972222222222222</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="G78">
-        <v>0.4946107784431138</v>
+        <v>0.4878640776699029</v>
       </c>
       <c r="H78">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6526315789473685</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C79">
-        <v>0.5170217976977712</v>
+        <v>0.5145248645987198</v>
       </c>
       <c r="D79">
-        <v>0.44</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E79">
-        <v>0.486873508353222</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="F79">
-        <v>0.5652173913043478</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="G79">
-        <v>0.4940617577197149</v>
+        <v>0.4951807228915663</v>
       </c>
       <c r="H79">
-        <v>0.408</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6351351351351351</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="C80">
-        <v>0.5162076529368754</v>
+        <v>0.5144592952612393</v>
       </c>
       <c r="D80">
-        <v>0.5384615384615384</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E80">
-        <v>0.4825930372148859</v>
+        <v>0.520048602673147</v>
       </c>
       <c r="F80">
-        <v>0.581081081081081</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="G80">
-        <v>0.4946492271105826</v>
+        <v>0.4909747292418772</v>
       </c>
       <c r="H80">
-        <v>0.414</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6756756756756757</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="C81">
-        <v>0.5171339563862928</v>
+        <v>0.5146775745909529</v>
       </c>
       <c r="D81">
-        <v>0.5862068965517241</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E81">
-        <v>0.4861944777911165</v>
+        <v>0.5125748502994012</v>
       </c>
       <c r="F81">
-        <v>0.5641025641025641</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="G81">
-        <v>0.5005945303210464</v>
+        <v>0.4850657108721625</v>
       </c>
       <c r="H81">
-        <v>0.416</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6470588235294118</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C82">
-        <v>0.5174129353233831</v>
+        <v>0.5138987883107626</v>
       </c>
       <c r="D82">
-        <v>0.5357142857142857</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E82">
-        <v>0.4909090909090909</v>
+        <v>0.5156626506024097</v>
       </c>
       <c r="F82">
-        <v>0.4428571428571428</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="G82">
-        <v>0.5005988023952096</v>
+        <v>0.4839094159713945</v>
       </c>
       <c r="H82">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7285714285714285</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="C83">
-        <v>0.5177570093457944</v>
+        <v>0.5158860908449047</v>
       </c>
       <c r="D83">
-        <v>0.5421686746987951</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E83">
-        <v>0.4975961538461539</v>
+        <v>0.5140758873929009</v>
       </c>
       <c r="F83">
-        <v>0.4428571428571428</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="G83">
-        <v>0.5059101654846335</v>
+        <v>0.4813027744270205</v>
       </c>
       <c r="H83">
-        <v>0.424</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6756756756756757</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C84">
-        <v>0.5161140737305819</v>
+        <v>0.5172173103769195</v>
       </c>
       <c r="D84">
-        <v>0.5540540540540541</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="E84">
-        <v>0.4951573849878935</v>
+        <v>0.511002444987775</v>
       </c>
       <c r="F84">
-        <v>0.4225352112676056</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="G84">
-        <v>0.5023809523809524</v>
+        <v>0.4975961538461539</v>
       </c>
       <c r="H84">
-        <v>0.42</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.717948717948718</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C85">
-        <v>0.5158329508949059</v>
+        <v>0.5159132841328413</v>
       </c>
       <c r="D85">
-        <v>0.5324675324675324</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="E85">
-        <v>0.4993954050785974</v>
+        <v>0.5104294478527608</v>
       </c>
       <c r="F85">
-        <v>0.4444444444444444</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="G85">
-        <v>0.5012019230769231</v>
+        <v>0.4895960832313341</v>
       </c>
       <c r="H85">
-        <v>0.412</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7027027027027027</v>
+        <v>0.6710526315789473</v>
       </c>
       <c r="C86">
-        <v>0.5137907453840893</v>
+        <v>0.5149782757832152</v>
       </c>
       <c r="D86">
-        <v>0.5862068965517241</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="E86">
-        <v>0.4957264957264957</v>
+        <v>0.5018181818181818</v>
       </c>
       <c r="F86">
-        <v>0.4324324324324325</v>
+        <v>0.6</v>
       </c>
       <c r="G86">
-        <v>0.496947496947497</v>
+        <v>0.4860606060606061</v>
       </c>
       <c r="H86">
-        <v>0.43</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6351351351351351</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="C87">
-        <v>0.5151036970243462</v>
+        <v>0.5154942320741913</v>
       </c>
       <c r="D87">
-        <v>0.5777777777777777</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="E87">
-        <v>0.4975186104218362</v>
+        <v>0.4940047961630695</v>
       </c>
       <c r="F87">
-        <v>0.5274725274725275</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="G87">
-        <v>0.4896719319562576</v>
+        <v>0.4825930372148859</v>
       </c>
       <c r="H87">
-        <v>0.43</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7105263157894737</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="C88">
-        <v>0.5170340681362725</v>
+        <v>0.513302034428795</v>
       </c>
       <c r="D88">
-        <v>0.5057471264367817</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="E88">
-        <v>0.5024449877750611</v>
+        <v>0.4976133651551313</v>
       </c>
       <c r="F88">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G88">
-        <v>0.4847746650426309</v>
+        <v>0.4873646209386281</v>
       </c>
       <c r="H88">
-        <v>0.432</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7464788732394366</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C89">
-        <v>0.5167622408469342</v>
+        <v>0.5145587908424094</v>
       </c>
       <c r="D89">
-        <v>0.4743589743589743</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E89">
-        <v>0.5066666666666667</v>
+        <v>0.4970273483947681</v>
       </c>
       <c r="F89">
-        <v>0.4605263157894737</v>
+        <v>0.5</v>
       </c>
       <c r="G89">
-        <v>0.4762484774665043</v>
+        <v>0.4897466827503016</v>
       </c>
       <c r="H89">
-        <v>0.44</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6811594202898551</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C90">
-        <v>0.5167829119442022</v>
+        <v>0.5135905304690925</v>
       </c>
       <c r="D90">
-        <v>0.4268292682926829</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E90">
-        <v>0.5024038461538461</v>
+        <v>0.5011933174224343</v>
       </c>
       <c r="F90">
-        <v>0.4507042253521127</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="G90">
-        <v>0.4736842105263158</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="H90">
-        <v>0.438</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7647058823529411</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C91">
-        <v>0.5175684414744557</v>
+        <v>0.5135663121337096</v>
       </c>
       <c r="D91">
-        <v>0.5176470588235295</v>
+        <v>0.625</v>
       </c>
       <c r="E91">
-        <v>0.5</v>
+        <v>0.5048426150121066</v>
       </c>
       <c r="F91">
-        <v>0.4861111111111111</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G91">
-        <v>0.471563981042654</v>
+        <v>0.4860267314702308</v>
       </c>
       <c r="H91">
-        <v>0.442</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7746478873239436</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C92">
-        <v>0.5156883671291356</v>
+        <v>0.5146048109965635</v>
       </c>
       <c r="D92">
-        <v>0.5714285714285714</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E92">
-        <v>0.4951573849878935</v>
+        <v>0.5030084235860409</v>
       </c>
       <c r="F92">
-        <v>0.4864864864864865</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="G92">
-        <v>0.465005931198102</v>
+        <v>0.4866504854368932</v>
       </c>
       <c r="H92">
-        <v>0.442</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7424242424242424</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="C93">
-        <v>0.5147617039223956</v>
+        <v>0.5139332057009147</v>
       </c>
       <c r="D93">
-        <v>0.5522388059701493</v>
+        <v>0.4625</v>
       </c>
       <c r="E93">
-        <v>0.4876905041031653</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="F93">
-        <v>0.4266666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G93">
-        <v>0.4653349001175088</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="H93">
-        <v>0.44</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6842105263157895</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C94">
-        <v>0.5157390035438816</v>
+        <v>0.5140562248995983</v>
       </c>
       <c r="D94">
-        <v>0.59375</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E94">
-        <v>0.4994152046783626</v>
+        <v>0.4969325153374233</v>
       </c>
       <c r="F94">
-        <v>0.5428571428571428</v>
+        <v>0.575</v>
       </c>
       <c r="G94">
-        <v>0.4658018867924528</v>
+        <v>0.4981729598051157</v>
       </c>
       <c r="H94">
-        <v>0.444</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7297297297297297</v>
+        <v>0.6835443037974683</v>
       </c>
       <c r="C95">
-        <v>0.5156671508611745</v>
+        <v>0.5129924559932942</v>
       </c>
       <c r="D95">
-        <v>0.5147058823529411</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="E95">
-        <v>0.5023980815347722</v>
+        <v>0.4912718204488778</v>
       </c>
       <c r="F95">
-        <v>0.4342105263157895</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="G95">
-        <v>0.4591346153846154</v>
+        <v>0.4951100244498777</v>
       </c>
       <c r="H95">
-        <v>0.438</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7126436781609196</v>
+        <v>0.6710526315789473</v>
       </c>
       <c r="C96">
-        <v>0.5141916906622789</v>
+        <v>0.5128898128898128</v>
       </c>
       <c r="D96">
-        <v>0.5476190476190477</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="E96">
-        <v>0.5114873035066505</v>
+        <v>0.4883148831488315</v>
       </c>
       <c r="F96">
-        <v>0.4146341463414634</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="G96">
-        <v>0.46163215590743</v>
+        <v>0.4938875305623472</v>
       </c>
       <c r="H96">
-        <v>0.438</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.725</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C97">
-        <v>0.5137952176578786</v>
+        <v>0.514003294892916</v>
       </c>
       <c r="D97">
-        <v>0.5802469135802469</v>
+        <v>0.5125</v>
       </c>
       <c r="E97">
-        <v>0.5157384987893463</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="F97">
-        <v>0.4074074074074074</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="G97">
-        <v>0.4602409638554217</v>
+        <v>0.4938574938574938</v>
       </c>
       <c r="H97">
-        <v>0.426</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7126436781609196</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C98">
-        <v>0.5130487558163059</v>
+        <v>0.5144720750101917</v>
       </c>
       <c r="D98">
-        <v>0.527027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="E98">
-        <v>0.5102533172496985</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="F98">
-        <v>0.3835616438356164</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="G98">
-        <v>0.4590361445783133</v>
+        <v>0.4928057553956834</v>
       </c>
       <c r="H98">
-        <v>0.43</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7441860465116279</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C99">
-        <v>0.5119549929676512</v>
+        <v>0.5142510612492419</v>
       </c>
       <c r="D99">
-        <v>0.524390243902439</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="E99">
-        <v>0.515625</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="F99">
-        <v>0.5068493150684932</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G99">
-        <v>0.4532374100719425</v>
+        <v>0.5048309178743962</v>
       </c>
       <c r="H99">
-        <v>0.428</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7473684210526316</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="C100">
-        <v>0.510752688172043</v>
+        <v>0.5126201923076923</v>
       </c>
       <c r="D100">
-        <v>0.5529411764705883</v>
+        <v>0.5</v>
       </c>
       <c r="E100">
-        <v>0.5242718446601942</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F100">
-        <v>0.5066666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G100">
-        <v>0.4526946107784431</v>
+        <v>0.5042117930204573</v>
       </c>
       <c r="H100">
-        <v>0.422</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6823529411764706</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C101">
-        <v>0.5095982584603206</v>
+        <v>0.5141265419816952</v>
       </c>
       <c r="D101">
-        <v>0.6125</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="E101">
-        <v>0.5293398533007335</v>
+        <v>0.4799025578562728</v>
       </c>
       <c r="F101">
-        <v>0.4096385542168675</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G101">
-        <v>0.4591346153846154</v>
+        <v>0.5</v>
       </c>
       <c r="H101">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
     </row>
   </sheetData>
